--- a/medicine/Enfance/Sarah_J._Maas/Sarah_J._Maas.xlsx
+++ b/medicine/Enfance/Sarah_J._Maas/Sarah_J._Maas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sarah J. Maas, née le 5 mars 1986 à New York, est une romancière et nouvelliste américaine de fantasy.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sarah J. Maas est née le 5 mars 1986 à New York, dans l'État de New York. Elle a grandi dans le quartier de l'Upper West Side, à Manhattan. Enfant, elle aimait créer des histoires basées sur des contes ou des mythes populaires. Elle écrivait également des fanfictions de Sailor Moon dans sa jeunesse.
 En 2008, Sarah J. Maas a obtenu un diplôme avec mention du Hamilton College à Clinton, Oneida County, New York, où elle s'est spécialisée dans l'écriture créative et dans les études religieuses.
-Les romans de Sarah J. Maas ont connu un succès fulgurant quelques années après leurs premières apparitions, notamment sur « BookTok », un dérivé populaire sur les réseaux sociaux. Ses séries — Un palais d'épines et de roses, ainsi que Throne of Glass (en) (titre original) — sont des livres à succès qui l’ont fait connaitre à travers le monde. Ses romans les plus populaires sont maintenant traduits en plus de 35 langues, selon les Éditions de la Martinière[1].
+Les romans de Sarah J. Maas ont connu un succès fulgurant quelques années après leurs premières apparitions, notamment sur « BookTok », un dérivé populaire sur les réseaux sociaux. Ses séries — Un palais d'épines et de roses, ainsi que Throne of Glass (en) (titre original) — sont des livres à succès qui l’ont fait connaitre à travers le monde. Ses romans les plus populaires sont maintenant traduits en plus de 35 langues, selon les Éditions de la Martinière.
 Cette autrice est reconnue pour écrire des romans pour jeune adulte et pour adulte. Ses œuvres forment un amalgame de romance et de fantasy.
 </t>
         </is>
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Keleana
-La série est rééditée en 2022 par les éditions Le Livre de poche jeunesse sous le titre Le Trône de cristal.
+          <t>Série Keleana</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La série est rééditée en 2022 par les éditions Le Livre de poche jeunesse sous le titre Le Trône de cristal.
 La Lame de l'assassineuse, La Martinière jeunesse, 2023 ((en) The Assassin's Blade: The Throne of Glass Novellas, 2014), recueil de cinq romans courts, préquelle, trad. Frédérique Fraisse, 464 p.  (ISBN 979-10-401-1662-2)
 Keleana et le Seigneur pirate, La Martinière jeunesse, 2013 ((en) The Assassin and the Pirate Lord, 2012), 64 p.novella préquelle. Paru uniquement en ebook. (ISBN 978-2-7324-5982-0)
 L'Assassineuse, La Martinière jeunesse, 2013 ((en) Throne of Glass, 2012), trad. Anne-Judith Descombey, 506 p.  (ISBN 978-2-7324-5603-4)Réédition sous le titre La Prisonnière, Le Livre de poche jeunesse, 2016, 506 p.  (ISBN 978-2-01-319309-2) ; réédition sous le titre L'Assassineuse, Le Livre de poche jeunesse, 2022, 496 p.  (ISBN 978-2-01-720222-6)
@@ -557,19 +576,121 @@
 La Reine des ombres, La Martinière jeunesse, 2020 ((en) Queen of Shadows, 2015), trad. Anne-Judith DescombeyParu en français en deux tomes en 2020 (448 p.  (ISBN 978-2-7324-9531-6)) et en 2021 (368 p.  (ISBN 978-2-7324-9728-0))
 L'Empire des tempêtes, La Martinière jeunesse, 2022 ((en) Empire of Storms, 2016), trad. Anne-Judith Descombey, 720 p.  (ISBN 979-10-401-1054-5)
 La Tour de l'aube, La Martinière jeunesse, 2023 ((en) Tower of Dawn, 2017), trad. Anne-Judith Descombey, 784 p.  (ISBN 979-10-401-1363-8)
-(en) Kingdom of Ash, 2018
-Série Un palais d'épines et de roses
-Un palais d'épines et de roses, La Martinière jeunesse, 2017 ((en) A Court of Thorns and Roses, 2015), trad. Anne-Judith Descombey, 524 p.  (ISBN 978-2-7324-7230-0)
+(en) Kingdom of Ash, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sarah_J._Maas</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sarah_J._Maas</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Un palais d'épines et de roses</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Un palais d'épines et de roses, La Martinière jeunesse, 2017 ((en) A Court of Thorns and Roses, 2015), trad. Anne-Judith Descombey, 524 p.  (ISBN 978-2-7324-7230-0)
 Un palais de colère et de brume, La Martinière jeunesse, 2018 ((en) A Court of Mist and Fury, 2016), trad. Anne-Judith Descombey, 718 p.  (ISBN 978-2-7324-8521-8)
 Un palais de cendres et de ruines, La Martinière jeunesse, 2019 ((en) A Court of Wings and Ruin, 2017), trad. Anne-Judith Descombey, 730 p.  (ISBN 978-2-7324-8880-6)
 Un palais de glace et de lumière, La Martinière jeunesse, 2019 ((en) A Court of Frost and Starlight, 2018), trad. Anne-Judith Descombey, 333 p.  (ISBN 978-2-7324-9076-2)
-Un palais de flammes d'argent, La Martinière jeunesse, 2021 ((en) A Court of Silver Flames, 2021), trad. Anne-Judith Descombey, 816 p.  (ISBN 978-2-7324-9877-5)
-Série Crescent City
-Maison de la Terre et du Sang, De Saxus, 2021 ((en) House of Earth and Blood, 2020), trad. Sébastien Guillot, 955 p.  (ISBN 978-2-37876-122-6)Réédition, J'ai lu, coll. « Fantasy » no 13511, 2022, 1 056 p.  (ISBN 978-2-290-37380-4)
+Un palais de flammes d'argent, La Martinière jeunesse, 2021 ((en) A Court of Silver Flames, 2021), trad. Anne-Judith Descombey, 816 p.  (ISBN 978-2-7324-9877-5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sarah_J._Maas</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sarah_J._Maas</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Crescent City</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Maison de la Terre et du Sang, De Saxus, 2021 ((en) House of Earth and Blood, 2020), trad. Sébastien Guillot, 955 p.  (ISBN 978-2-37876-122-6)Réédition, J'ai lu, coll. « Fantasy » no 13511, 2022, 1 056 p.  (ISBN 978-2-290-37380-4)
 Maison du Ciel et du Souffle, De Saxus, 2022 ((en) House of Sky and Breath, 2022), trad. Chloé Bardan, 936 p.  (ISBN 978-2-37876-167-7)Réédition, J'ai lu, coll. « Fantasy », 2023, 1 056 p.  (ISBN 978-2-290-37380-4)
-Maison de la Flamme et de l'Ombre, De Saxus, 2024 ((en) House of Flame and Shadow, 2024), trad. Chloé Bardan, 960 p.  (ISBN 978-2-37876-412-8)
-Romans indépendants
-Catwoman : Soulstealer, Bayard jeunesse, 2019 ((en) Catwoman: Soulstealer, 2018), trad. Emmanuelle Debon, 502 p.  (ISBN 978-2-7470-8847-3)</t>
+Maison de la Flamme et de l'Ombre, De Saxus, 2024 ((en) House of Flame and Shadow, 2024), trad. Chloé Bardan, 960 p.  (ISBN 978-2-37876-412-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sarah_J._Maas</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sarah_J._Maas</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Catwoman : Soulstealer, Bayard jeunesse, 2019 ((en) Catwoman: Soulstealer, 2018), trad. Emmanuelle Debon, 502 p.  (ISBN 978-2-7470-8847-3)</t>
         </is>
       </c>
     </row>
